--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -49,10 +49,13 @@
     <t xml:space="preserve">quantity_alert</t>
   </si>
   <si>
-    <t xml:space="preserve">status</t>
+    <t xml:space="preserve">status (active / un-active)</t>
   </si>
   <si>
     <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sss</t>
   </si>
 </sst>
 </file>
@@ -61,7 +64,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -142,8 +145,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -167,18 +170,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
@@ -221,6 +230,23 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">sss</t>
+    <t xml:space="preserve">food Type (halal/haram)</t>
   </si>
 </sst>
 </file>
@@ -170,10 +170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -182,13 +182,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
@@ -226,7 +227,9 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G2" s="2"/>
@@ -242,11 +245,6 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G6" s="2"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H11" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t xml:space="preserve">description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">food Type (halal/haram)</t>
   </si>
 </sst>
 </file>
@@ -173,7 +170,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -227,9 +224,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G2" s="2"/>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -28,13 +28,19 @@
     <t xml:space="preserve">code</t>
   </si>
   <si>
+    <t xml:space="preserve">tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
     <t xml:space="preserve">category</t>
   </si>
   <si>
     <t xml:space="preserve">sub_category</t>
   </si>
   <si>
-    <t xml:space="preserve">tags</t>
+    <t xml:space="preserve">Purchase Price</t>
   </si>
   <si>
     <t xml:space="preserve">rate</t>
@@ -47,6 +53,15 @@
   </si>
   <si>
     <t xml:space="preserve">quantity_alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image (URL)</t>
   </si>
   <si>
     <t xml:space="preserve">status (active / un-active)</t>
@@ -63,7 +78,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -93,6 +108,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,12 +159,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,27 +193,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="25.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="25.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="23.41"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -197,7 +227,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -224,22 +254,31 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G3" s="2"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G4" s="2"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="2"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G6" s="2"/>
+      <c r="I6" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -68,15 +68,23 @@
   </si>
   <si>
     <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unit Pieces</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="\7"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -159,7 +167,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -168,11 +176,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,10 +209,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="L15" activeCellId="0" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -208,7 +224,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="4.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.37"/>
@@ -227,7 +243,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -239,13 +255,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -269,16 +285,21 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="3"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="3"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="3"/>
+      <c r="I6" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Horeca-admin\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5606F09E-A07C-49EC-AACC-99FFA835BB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E292281-071A-46AB-8A86-C556EF47B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -82,6 +82,36 @@
   </si>
   <si>
     <t>package_quantity</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>mobile,tech</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>1250,5</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>https://images.macrumors.com/t/M9aa_NOYw0CsORuAWeiJ7ZGuiA0=/800x0/article-new/2024/08/sonny-iphone-16-pro-colors.jpg?lossy</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>test product</t>
+  </si>
+  <si>
+    <t>125,5</t>
   </si>
 </sst>
 </file>
@@ -91,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\7"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,6 +150,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,10 +176,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,8 +196,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,7 +515,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,14 +528,14 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="4.28515625" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" customWidth="1"/>
     <col min="12" max="12" width="5.140625" customWidth="1"/>
     <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="125.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -557,6 +598,62 @@
       </c>
       <c r="S1" s="6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>2121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2">
+        <v>1200</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -569,6 +666,9 @@
       <c r="I6" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N2" r:id="rId1" xr:uid="{215D6AE6-37CD-48DE-A0E1-BC8B9145A8C5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Horeca-admin\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Horeca-admin\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E292281-071A-46AB-8A86-C556EF47B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694AA14E-4336-4928-BAEF-C2197462DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -42,9 +42,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>sub_category</t>
-  </si>
-  <si>
     <t>Purchase Price</t>
   </si>
   <si>
@@ -57,15 +54,9 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>quantity_alert</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
-    <t>Unit Quantity</t>
-  </si>
-  <si>
     <t>Image (URL)</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>Unit Pieces</t>
   </si>
   <si>
-    <t>package_quantity</t>
-  </si>
-  <si>
     <t>iphone</t>
   </si>
   <si>
@@ -112,6 +100,21 @@
   </si>
   <si>
     <t>125,5</t>
+  </si>
+  <si>
+    <t>Unit content</t>
+  </si>
+  <si>
+    <t>quantity alert</t>
+  </si>
+  <si>
+    <t>package quantity</t>
+  </si>
+  <si>
+    <t>sub category</t>
+  </si>
+  <si>
+    <t>tech</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,69 +561,72 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="S1" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>2121</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
       </c>
       <c r="G2">
         <v>1200</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <v>17</v>
@@ -632,22 +638,22 @@
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="R2">
         <v>1</v>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Horeca-admin\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694AA14E-4336-4928-BAEF-C2197462DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0DB30-949C-475D-B17E-3B27172F95A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>tech</t>
+  </si>
+  <si>
+    <t>content weight</t>
+  </si>
+  <si>
+    <t>package weight</t>
   </si>
 </sst>
 </file>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,9 +548,11 @@
     <col min="17" max="17" width="23.42578125" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,8 +610,14 @@
       <c r="S1" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -661,14 +675,20 @@
       <c r="S2">
         <v>1</v>
       </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I6" s="5"/>
     </row>
   </sheetData>
@@ -676,6 +696,6 @@
     <hyperlink ref="N2" r:id="rId1" xr:uid="{215D6AE6-37CD-48DE-A0E1-BC8B9145A8C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Horeca-admin\public\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Nasir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0DB30-949C-475D-B17E-3B27172F95A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A69EF-7928-45CA-A740-0A7EAD99F968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>tags</t>
-  </si>
-  <si>
     <t>Brand</t>
   </si>
   <si>
@@ -45,15 +42,6 @@
     <t>Purchase Price</t>
   </si>
   <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>tax</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -63,9 +51,6 @@
     <t>status (active / un-active)</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -81,12 +66,6 @@
     <t>Apple</t>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>1250,5</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
@@ -96,41 +75,50 @@
     <t>active</t>
   </si>
   <si>
-    <t>test product</t>
-  </si>
-  <si>
-    <t>125,5</t>
-  </si>
-  <si>
-    <t>Unit content</t>
-  </si>
-  <si>
-    <t>quantity alert</t>
-  </si>
-  <si>
-    <t>package quantity</t>
-  </si>
-  <si>
     <t>sub category</t>
   </si>
   <si>
     <t>tech</t>
   </si>
   <si>
-    <t>content weight</t>
-  </si>
-  <si>
-    <t>package weight</t>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Unit Quantity</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Package weight</t>
+  </si>
+  <si>
+    <t>Content weight</t>
+  </si>
+  <si>
+    <t>Quantity alert</t>
+  </si>
+  <si>
+    <t>Package quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\7"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -139,25 +127,11 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -167,13 +141,27 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -185,29 +173,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -521,159 +501,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" customWidth="1"/>
-    <col min="14" max="14" width="125.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="125.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>2121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2">
+        <v>1200</v>
+      </c>
+      <c r="J2">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>150</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1500</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
         <v>15</v>
       </c>
-      <c r="B2">
-        <v>2121</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2">
-        <v>1200</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
-      </c>
-      <c r="P2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>24</v>
       </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
+      <c r="S2" t="s">
+        <v>11</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -681,19 +657,10 @@
       <c r="U2">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="I6" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{215D6AE6-37CD-48DE-A0E1-BC8B9145A8C5}"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{3989378A-21B4-444B-A652-A2C99EE713C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Nasir\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982A69EF-7928-45CA-A740-0A7EAD99F968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB03B1E-8A81-4A90-BEC7-A1430146DF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -504,7 +504,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,6 +606,9 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Muhammad Nasir\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Horeca-admin\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB03B1E-8A81-4A90-BEC7-A1430146DF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656B539-23B1-4915-9A2B-6844ED835AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Package quantity</t>
+  </si>
+  <si>
+    <t>Unit  Type</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,9 +532,10 @@
     <col min="19" max="19" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -595,8 +599,11 @@
       <c r="U1" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2121</v>
       </c>
@@ -659,6 +666,9 @@
       </c>
       <c r="U2">
         <v>11</v>
+      </c>
+      <c r="V2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Horeca-admin\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656B539-23B1-4915-9A2B-6844ED835AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233CFFF-F557-43A7-8A46-E766F85F382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>name</t>
   </si>
@@ -57,30 +57,9 @@
     <t>Unit Pieces</t>
   </si>
   <si>
-    <t>iphone</t>
-  </si>
-  <si>
-    <t>mobile,tech</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>https://images.macrumors.com/t/M9aa_NOYw0CsORuAWeiJ7ZGuiA0=/800x0/article-new/2024/08/sonny-iphone-16-pro-colors.jpg?lossy</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
     <t>sub category</t>
   </si>
   <si>
-    <t>tech</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -96,12 +75,6 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>Unit Quantity</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>Package weight</t>
   </si>
   <si>
@@ -115,13 +88,16 @@
   </si>
   <si>
     <t>Unit  Type</t>
+  </si>
+  <si>
+    <t>Unit Content</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,14 +111,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -176,22 +144,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,7 +472,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection sqref="A1:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,146 +501,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>29</v>
+      <c r="V1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2121</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>1200</v>
-      </c>
-      <c r="J2">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>150</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1500</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="R2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>11</v>
-      </c>
-      <c r="V2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{3989378A-21B4-444B-A652-A2C99EE713C2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/assets/products sample.xlsx
+++ b/public/assets/products sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\Horeca-admin\public\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4233CFFF-F557-43A7-8A46-E766F85F382D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39F0A4C-DCF3-4000-9C07-A804E8F41FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -91,13 +91,43 @@
   </si>
   <si>
     <t>Unit Content</t>
+  </si>
+  <si>
+    <t>https://images.macrumors.com/t/M9aa_NOYw0CsORuAWeiJ7ZGuiA0=/800x0/article-new/2024/08/sonny-iphone-16-pro-colors.jpg?lossy</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>iphone</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>13,50</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>Test product</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>mobile,phone,tech</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,6 +149,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,19 +182,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="20% - Accent6" xfId="1" builtinId="50"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,7 +513,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:W2"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,75 +610,78 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>2121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2">
+        <v>1450</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1450</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2">
+        <v>400</v>
+      </c>
+      <c r="S2">
+        <v>400</v>
+      </c>
+      <c r="T2">
         <v>5</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>15</v>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{5762ACC1-02A5-4063-A0E6-D153CCB4AFD4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>